--- a/xlsx/圣卢西亚_intext.xlsx
+++ b/xlsx/圣卢西亚_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="719">
   <si>
     <t>圣卢西亚</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%9B%A7%E8%A5%BF%E4%BA%9E%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖盧西亞島</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_圣卢西亚</t>
+    <t>圣卢西亚岛</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_圣卢西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E5%9B%BD%E6%97%97</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E7%9A%84%E5%AD%90%E5%A5%B3</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
@@ -161,31 +161,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E5%A5%B3%E7%8E%8B</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E6%80%BB%E7%90%86</t>
@@ -239,19 +239,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%80%AB%C2%B7%E5%88%87%E6%96%AF%E7%89%B9%E5%B0%BC</t>
   </si>
   <si>
-    <t>艾倫·切斯特尼</t>
+    <t>艾伦·切斯特尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0%E5%8B%92%E6%AF%94%E5%85%83</t>
   </si>
   <si>
-    <t>東加勒比元</t>
+    <t>东加勒比元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.lc</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
@@ -329,25 +329,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%9C%8B</t>
   </si>
   <si>
-    <t>島國</t>
+    <t>岛国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E9%A6%AC%E4%B8%81%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>法屬馬丁尼克</t>
+    <t>法属马丁尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AE%89%E5%9C%B0%E5%88%97%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>小安地列斯群島</t>
+    <t>小安地列斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E5%8E%86%E5%8F%B2</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/1814%E5%B9%B4%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>1814年巴黎條約</t>
+    <t>1814年巴黎条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>聖露西亞軍事</t>
+    <t>圣露西亚军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%B6%93%E6%BF%9F%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾經濟學獎</t>
+    <t>诺贝尔经济学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E6%B2%83%E5%B0%94%E7%A7%91%E7%89%B9</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E6%96%87%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾文學獎</t>
+    <t>诺贝尔文学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Central_Intelligence_Agency</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -677,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -695,25 +695,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -725,19 +725,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -755,31 +755,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -809,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -977,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
@@ -1055,13 +1055,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>湯加</t>
+    <t>汤加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
@@ -1091,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞什摩及卡地爾群島</t>
+    <t>亚什摩及卡地尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>賀得及麥唐納群島</t>
+    <t>贺得及麦唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
@@ -1139,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -1181,15 +1181,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>福克兰群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
   </si>
   <si>
@@ -1235,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8D%94%E5%A2%83%E5%9F%9F</t>
   </si>
   <si>
-    <t>國協境域</t>
+    <t>国协境域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%A2%86</t>
@@ -1247,13 +1241,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E9%81%94%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
-    <t>安提瓜和巴布達君主</t>
+    <t>安提瓜和巴布达君主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>紐西蘭王國</t>
+    <t>纽西兰王国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Monarchy_in_the_Cook_Islands</t>
@@ -1271,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>錫蘭自治領</t>
+    <t>锡兰自治领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E%E8%87%AA%E6%B2%BB%E9%A2%86</t>
@@ -1337,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>紐芬蘭自治領</t>
+    <t>纽芬兰自治领</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Federation_of_Nigeria</t>
@@ -1349,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅德西亞</t>
+    <t>罗德西亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sierra_Leone_(Commonwealth_realm)</t>
@@ -1391,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -1409,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
@@ -1433,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1457,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
@@ -1517,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1547,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
@@ -1589,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -1607,7 +1601,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
@@ -1643,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -1661,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
@@ -1727,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1739,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5</t>
@@ -1799,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -1817,13 +1811,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
@@ -1871,9 +1865,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
   </si>
   <si>
@@ -1883,9 +1874,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
   </si>
   <si>
@@ -1895,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -1913,15 +1901,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中非共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -2039,9 +2021,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
   </si>
   <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
@@ -2063,9 +2042,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
   </si>
   <si>
@@ -2165,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2195,7 +2171,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -7847,7 +7823,7 @@
         <v>356</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -8337,7 +8313,7 @@
         <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>236</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8363,10 +8339,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>238</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8392,10 +8368,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8421,10 +8397,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8450,10 +8426,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8479,10 +8455,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8537,10 +8513,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8566,10 +8542,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8595,10 +8571,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8624,10 +8600,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8653,10 +8629,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -8682,10 +8658,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>21</v>
@@ -8711,10 +8687,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8740,10 +8716,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8769,10 +8745,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8798,10 +8774,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8827,10 +8803,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -8856,10 +8832,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8885,10 +8861,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8914,10 +8890,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8943,10 +8919,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8972,10 +8948,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9001,10 +8977,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9030,10 +9006,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9059,10 +9035,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9088,10 +9064,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9117,10 +9093,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9146,10 +9122,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9175,10 +9151,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9204,10 +9180,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9233,10 +9209,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9262,10 +9238,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9291,10 +9267,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9320,10 +9296,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9349,10 +9325,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9378,10 +9354,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -9407,10 +9383,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9436,10 +9412,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9465,10 +9441,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9494,10 +9470,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9523,10 +9499,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9552,10 +9528,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9581,10 +9557,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9610,10 +9586,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9639,10 +9615,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9668,10 +9644,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9697,10 +9673,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9726,10 +9702,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9755,10 +9731,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9784,10 +9760,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9813,10 +9789,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F251" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9842,10 +9818,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9871,10 +9847,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9900,10 +9876,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9929,10 +9905,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9958,10 +9934,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G256" t="n">
         <v>8</v>
@@ -9987,10 +9963,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10016,10 +9992,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F258" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10045,10 +10021,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F259" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10074,10 +10050,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F260" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10103,10 +10079,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F261" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10132,10 +10108,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F262" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10161,10 +10137,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F263" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10190,10 +10166,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F264" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10219,10 +10195,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F265" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10248,10 +10224,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F266" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10277,10 +10253,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F267" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10306,10 +10282,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F268" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10335,10 +10311,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F269" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10364,10 +10340,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10393,10 +10369,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10422,10 +10398,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10451,10 +10427,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10480,10 +10456,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10509,10 +10485,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10538,10 +10514,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10567,10 +10543,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F277" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10596,10 +10572,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10625,10 +10601,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F279" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -10654,10 +10630,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F280" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10712,10 +10688,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10741,10 +10717,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10770,10 +10746,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10799,10 +10775,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10828,10 +10804,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10857,10 +10833,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -10886,10 +10862,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10915,10 +10891,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10944,10 +10920,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10973,10 +10949,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11002,10 +10978,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11031,10 +11007,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11060,10 +11036,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11089,10 +11065,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11118,10 +11094,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F296" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11147,10 +11123,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F297" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11176,10 +11152,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11205,10 +11181,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11234,10 +11210,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11263,10 +11239,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11292,10 +11268,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11321,10 +11297,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11350,10 +11326,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11379,10 +11355,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11408,10 +11384,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F306" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11437,10 +11413,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F307" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11466,10 +11442,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F308" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11495,10 +11471,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F309" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11524,10 +11500,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F310" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11553,10 +11529,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F311" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11582,10 +11558,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F312" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11611,10 +11587,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F313" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11640,10 +11616,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F314" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11669,10 +11645,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F315" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11698,10 +11674,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F316" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11727,10 +11703,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F317" t="s">
-        <v>618</v>
+        <v>158</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11756,10 +11732,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F318" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11785,10 +11761,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F319" t="s">
-        <v>622</v>
+        <v>200</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11814,10 +11790,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F320" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11843,10 +11819,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F321" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11872,10 +11848,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F322" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11901,10 +11877,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F323" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11930,10 +11906,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F324" t="s">
-        <v>632</v>
+        <v>478</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -11959,10 +11935,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F325" t="s">
-        <v>634</v>
+        <v>206</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11988,10 +11964,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F326" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12017,10 +11993,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F327" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12046,10 +12022,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F328" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12075,10 +12051,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F329" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G329" t="n">
         <v>4</v>
@@ -12104,10 +12080,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12133,10 +12109,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12162,10 +12138,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12191,10 +12167,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12249,10 +12225,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12278,10 +12254,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12307,10 +12283,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12336,10 +12312,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F338" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12365,10 +12341,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F339" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12423,10 +12399,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F341" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12452,10 +12428,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F342" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12481,10 +12457,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F343" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12510,10 +12486,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F344" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12539,10 +12515,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12568,10 +12544,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12597,10 +12573,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F347" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12626,10 +12602,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F348" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12655,10 +12631,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F349" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12684,10 +12660,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F350" t="s">
-        <v>674</v>
+        <v>212</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12713,10 +12689,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F351" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12742,10 +12718,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F352" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12771,10 +12747,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F353" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12800,10 +12776,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F354" t="s">
-        <v>682</v>
+        <v>340</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12829,10 +12805,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F355" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12887,10 +12863,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F357" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12916,10 +12892,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F358" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12945,10 +12921,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F359" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12974,10 +12950,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F360" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13003,10 +12979,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F361" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13032,10 +13008,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F362" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13061,10 +13037,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F363" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13090,10 +13066,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F364" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13119,10 +13095,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F365" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13148,10 +13124,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F366" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13177,10 +13153,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F367" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13206,10 +13182,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F368" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13235,10 +13211,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F369" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13264,10 +13240,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F370" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13293,10 +13269,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F371" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13322,10 +13298,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F372" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13351,10 +13327,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F373" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13380,10 +13356,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F374" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13409,10 +13385,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F375" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G375" t="n">
         <v>3</v>
@@ -13438,10 +13414,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F376" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13467,10 +13443,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F377" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13496,10 +13472,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F378" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13525,10 +13501,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F379" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13554,10 +13530,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F380" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>

--- a/xlsx/圣卢西亚_intext.xlsx
+++ b/xlsx/圣卢西亚_intext.xlsx
@@ -23,13 +23,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%9B%A7%E8%A5%BF%E4%BA%9E%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>聖盧西亞島</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_圣卢西亚</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
+  </si>
+  <si>
+    <t>圣卢西亚 (消歧义)</t>
+  </si>
+  <si>
+    <t>体育运动_体育运动_伊朗_圣卢西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E5%9B%BD%E6%97%97</t>
@@ -3062,7 +3062,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -4077,7 +4077,7 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -4106,7 +4106,7 @@
         <v>102</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -4135,7 +4135,7 @@
         <v>104</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
